--- a/Main Website/media/Employees/Employee_Database.xlsx
+++ b/Main Website/media/Employees/Employee_Database.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R118"/>
+  <dimension ref="A1:R142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +440,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Unnamed: 0</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -541,11 +541,7 @@
           <t>P109</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -578,7 +574,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>FIXED</t>
+          <t>INCENTIVE</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -597,7 +593,11 @@
       <c r="Q2" s="2" t="n">
         <v>44193</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -611,11 +611,7 @@
           <t>P192</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>P200</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -667,7 +663,11 @@
       <c r="Q3" s="2" t="n">
         <v>44386</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -683,7 +683,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>P226</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>MUTHOOT</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -786,11 +786,11 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>FIXED</t>
+          <t>INCENTIVE</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2" t="n">
         <v>32676</v>
@@ -817,11 +817,7 @@
           <t>P133</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -873,7 +869,11 @@
       <c r="Q6" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -941,7 +941,11 @@
         <v>44287</v>
       </c>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -955,11 +959,7 @@
           <t>P207</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>P226</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -1011,7 +1011,11 @@
       <c r="Q8" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -1025,11 +1029,7 @@
           <t>P204</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -1081,7 +1081,11 @@
       <c r="Q9" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -1127,7 +1131,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>OTR</t>
+          <t>RECOVERY</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1149,7 +1153,11 @@
         <v>44260</v>
       </c>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1165,7 +1173,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1200,11 +1208,11 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>FIXED</t>
+          <t>INCENTIVE</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
         <v>32937</v>
@@ -1231,11 +1239,7 @@
           <t>P222</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -1287,7 +1291,11 @@
       <c r="Q12" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -1301,11 +1309,7 @@
           <t>P171</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>P226</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -1357,7 +1361,11 @@
       <c r="Q13" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -1373,7 +1381,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1441,7 +1449,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1466,7 +1474,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>L&amp;T</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1509,7 +1517,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1529,7 +1537,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1544,11 +1552,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>FIXED</t>
+          <t>INCENTIVE</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>30239</v>
@@ -1561,7 +1569,11 @@
         <v>43628</v>
       </c>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -1577,7 +1589,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1597,7 +1609,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1612,11 +1624,11 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>FIXED</t>
+          <t>INCENTIVE</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>36368</v>
@@ -1628,9 +1640,7 @@
       <c r="P17" s="2" t="n">
         <v>44045</v>
       </c>
-      <c r="Q17" s="2" t="n">
-        <v>44409</v>
-      </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1645,11 +1655,7 @@
           <t>P003</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -1701,7 +1707,11 @@
       <c r="Q18" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -1715,11 +1725,7 @@
           <t>P202</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>P226</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -1771,7 +1777,11 @@
       <c r="Q19" s="2" t="n">
         <v>44367</v>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -1787,7 +1797,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1817,16 +1827,16 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>FIXED</t>
+          <t>INCENTIVE</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2" t="n">
         <v>32920</v>
@@ -1839,7 +1849,11 @@
         <v>44013</v>
       </c>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -1917,11 +1931,7 @@
           <t>O240</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -1973,7 +1983,11 @@
       <c r="Q22" s="2" t="n">
         <v>44333</v>
       </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -1989,7 +2003,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2024,11 +2038,11 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>FIXED</t>
+          <t>INCENTIVE</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2" t="n">
         <v>21860</v>
@@ -2055,11 +2069,7 @@
           <t>P230</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -2111,7 +2121,11 @@
       <c r="Q24" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -2175,7 +2189,11 @@
         <v>44287</v>
       </c>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -2189,11 +2207,7 @@
           <t>P198</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>P200</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -2243,9 +2257,13 @@
         <v>44229</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>41111</v>
-      </c>
-      <c r="R26" t="inlineStr"/>
+        <v>44398</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -2266,12 +2284,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LOWER MANAGEMENT</t>
+          <t>MIDDLE MANAGEMENT</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2313,7 +2331,11 @@
         <v>44229</v>
       </c>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -2327,11 +2349,7 @@
           <t>P238</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>O239</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -2383,7 +2401,11 @@
       <c r="Q28" s="2" t="n">
         <v>44357</v>
       </c>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -2397,11 +2419,7 @@
           <t>P142</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -2453,7 +2471,11 @@
       <c r="Q29" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -2469,7 +2491,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2589,7 +2611,11 @@
         <v>44294</v>
       </c>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -2603,11 +2629,7 @@
           <t>P088</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>MIDDLE MANAGEMENT</t>
@@ -2659,7 +2681,11 @@
       <c r="Q32" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -2673,11 +2699,7 @@
           <t>P177</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -2710,11 +2732,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>FIXED</t>
+          <t>INCENTIVE</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="M33" s="2" t="n">
         <v>31851</v>
@@ -2729,7 +2751,11 @@
       <c r="Q33" s="2" t="n">
         <v>44386</v>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -2743,11 +2769,7 @@
           <t>P205</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -2780,11 +2802,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>FIXED</t>
+          <t>INCENTIVE</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="M34" s="2" t="n">
         <v>34455</v>
@@ -2799,7 +2821,11 @@
       <c r="Q34" s="2" t="n">
         <v>44388</v>
       </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -2863,7 +2889,11 @@
         <v>44287</v>
       </c>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -2879,7 +2909,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2904,7 +2934,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>MUTHOOT</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2931,7 +2961,11 @@
         <v>44295</v>
       </c>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -2947,7 +2981,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>O239</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2999,7 +3033,11 @@
         <v>44352</v>
       </c>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -3063,7 +3101,11 @@
         <v>44287</v>
       </c>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -3077,11 +3119,7 @@
           <t>O72</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>MIDDLE MANAGEMENT</t>
@@ -3145,11 +3183,7 @@
           <t>O186</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>O239</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>MIDDLE MANAGEMENT</t>
@@ -3172,12 +3206,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>FULLERTON</t>
+          <t>SALES</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>OTR</t>
+          <t>SALES</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3199,7 +3233,11 @@
         <v>44229</v>
       </c>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -3267,7 +3305,11 @@
         <v>44298</v>
       </c>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -3281,11 +3323,7 @@
           <t>P191</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>P226</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -3337,7 +3375,11 @@
       <c r="Q42" s="2" t="n">
         <v>44333</v>
       </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -3351,11 +3393,7 @@
           <t>P227</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>P226</t>
-        </is>
-      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -3407,7 +3445,11 @@
       <c r="Q43" s="2" t="n">
         <v>44333</v>
       </c>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -3421,11 +3463,7 @@
           <t>P118</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -3477,7 +3515,11 @@
       <c r="Q44" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -3491,11 +3533,7 @@
           <t>P140</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -3528,11 +3566,11 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>FIXED</t>
+          <t>INCENTIVE</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="M45" s="2" t="n">
         <v>31782</v>
@@ -3547,7 +3585,11 @@
       <c r="Q45" s="2" t="n">
         <v>44170</v>
       </c>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -3561,11 +3603,7 @@
           <t>P223</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>P200</t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -3617,7 +3655,11 @@
       <c r="Q46" s="2" t="n">
         <v>44333</v>
       </c>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -3633,7 +3675,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3668,11 +3710,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>FIXED</t>
+          <t>INCENTIVE</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="M47" s="2" t="n">
         <v>32417</v>
@@ -3753,7 +3795,11 @@
         <v>44287</v>
       </c>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -3819,7 +3865,11 @@
       <c r="Q49" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -3835,7 +3885,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3870,11 +3920,11 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>FIXED</t>
+          <t>INCENTIVE</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="M50" s="2" t="n">
         <v>32143</v>
@@ -3903,7 +3953,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3971,7 +4021,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4006,11 +4056,11 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>FIXED</t>
+          <t>INCENTIVE</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="M52" s="2" t="n">
         <v>29486</v>
@@ -4037,11 +4087,7 @@
           <t>P245</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>O239</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -4093,7 +4139,11 @@
       <c r="Q53" s="2" t="n">
         <v>44333</v>
       </c>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -4107,11 +4157,7 @@
           <t>P141</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -4144,11 +4190,11 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>FIXED</t>
+          <t>INCENTIVE</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="M54" s="2" t="n">
         <v>32366</v>
@@ -4163,7 +4209,11 @@
       <c r="Q54" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -4177,7 +4227,11 @@
           <t>O200</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>MIDDLE MANAGEMENT</t>
@@ -4227,7 +4281,11 @@
         <v>44229</v>
       </c>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -4243,7 +4301,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4278,11 +4336,11 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>FIXED</t>
+          <t>INCENTIVE</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="M56" s="2" t="n">
         <v>32740</v>
@@ -4359,7 +4417,11 @@
         <v>44317</v>
       </c>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -4373,11 +4435,7 @@
           <t>P242</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -4429,7 +4487,11 @@
       <c r="Q58" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -4443,11 +4505,7 @@
           <t>P079</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -4480,11 +4538,11 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>FIXED</t>
+          <t>INCENTIVE</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="M59" s="2" t="n">
         <v>33933</v>
@@ -4499,7 +4557,11 @@
       <c r="Q59" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -4515,7 +4577,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>P200</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4567,7 +4629,11 @@
         <v>44229</v>
       </c>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -4631,7 +4697,11 @@
         <v>44287</v>
       </c>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -4645,11 +4715,7 @@
           <t>P231</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -4701,7 +4767,11 @@
       <c r="Q62" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -4715,11 +4785,7 @@
           <t>P196</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>P226</t>
-        </is>
-      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -4771,7 +4837,11 @@
       <c r="Q63" s="2" t="n">
         <v>44333</v>
       </c>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -4839,7 +4909,11 @@
         <v>44229</v>
       </c>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -4907,7 +4981,11 @@
         <v>44321</v>
       </c>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -4921,11 +4999,7 @@
           <t>P244</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -4977,7 +5051,11 @@
       <c r="Q66" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -5023,7 +5101,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>RECOVERY</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5045,7 +5123,11 @@
         <v>44354</v>
       </c>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -5059,11 +5141,7 @@
           <t>T011</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -5115,7 +5193,11 @@
       <c r="Q68" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="R68" t="inlineStr"/>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -5136,12 +5218,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>LOWER MANAGEMENT</t>
+          <t>MIDDLE MANAGEMENT</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5183,7 +5265,11 @@
         <v>44317</v>
       </c>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -5251,7 +5337,11 @@
         <v>44321</v>
       </c>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -5267,7 +5357,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>O239</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5319,7 +5409,11 @@
         <v>44291</v>
       </c>
       <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -5387,7 +5481,11 @@
         <v>44287</v>
       </c>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -5455,7 +5553,11 @@
         <v>44355</v>
       </c>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
@@ -5469,11 +5571,7 @@
           <t>O260</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>P226</t>
-        </is>
-      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -5525,7 +5623,11 @@
       <c r="Q74" s="2" t="n">
         <v>44428</v>
       </c>
-      <c r="R74" t="inlineStr"/>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -5539,11 +5641,7 @@
           <t>O261</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>P226</t>
-        </is>
-      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -5595,7 +5693,11 @@
       <c r="Q75" s="2" t="n">
         <v>44426</v>
       </c>
-      <c r="R75" t="inlineStr"/>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -5609,11 +5711,7 @@
           <t>O262</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -5631,7 +5729,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5662,8 +5760,14 @@
       <c r="P76" s="2" t="n">
         <v>44355</v>
       </c>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
+      <c r="Q76" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
@@ -5731,7 +5835,11 @@
         <v>44355</v>
       </c>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
@@ -5799,7 +5907,11 @@
         <v>44355</v>
       </c>
       <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
@@ -5815,7 +5927,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>P200</t>
+          <t>O281</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5835,17 +5947,17 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>BAJAJ</t>
+          <t>HERO</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>RECOVERY</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5867,7 +5979,11 @@
         <v>44355</v>
       </c>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -5883,7 +5999,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>P200</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5908,12 +6024,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>BAJAJ</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5935,7 +6051,11 @@
         <v>44356</v>
       </c>
       <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -5951,7 +6071,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>P200</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -6003,7 +6123,11 @@
         <v>44356</v>
       </c>
       <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -6017,11 +6141,7 @@
           <t>P259</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -6073,7 +6193,11 @@
       <c r="Q82" s="2" t="n">
         <v>44379</v>
       </c>
-      <c r="R82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
@@ -6089,7 +6213,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -6124,11 +6248,11 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>FIXED</t>
+          <t>INCENTIVE</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="M83" s="2" t="n">
         <v>35109</v>
@@ -6155,11 +6279,7 @@
           <t>P262</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -6177,7 +6297,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6208,8 +6328,14 @@
       <c r="P84" s="2" t="n">
         <v>44363</v>
       </c>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
+      <c r="Q84" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
@@ -6225,7 +6351,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>O281</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -6250,12 +6376,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>HERO</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>RECOVERY</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6277,7 +6403,11 @@
         <v>44363</v>
       </c>
       <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
@@ -6291,14 +6421,10 @@
           <t>O273</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>LOWER MANAGEMENT</t>
+          <t>MIDDLE MANAGEMENT</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6347,7 +6473,11 @@
       <c r="Q86" s="2" t="n">
         <v>44430</v>
       </c>
-      <c r="R86" t="inlineStr"/>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -6361,7 +6491,11 @@
           <t>O274</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>O281</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -6384,12 +6518,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>HDFC</t>
+          <t>HERO</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>RECOVERY</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6411,7 +6545,11 @@
         <v>44365</v>
       </c>
       <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
@@ -6475,7 +6613,11 @@
         <v>44348</v>
       </c>
       <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
@@ -6489,11 +6631,7 @@
           <t>P265</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -6545,7 +6683,11 @@
       <c r="Q89" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="R89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
@@ -6561,7 +6703,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6627,11 +6769,7 @@
           <t>P266</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -6683,7 +6821,11 @@
       <c r="Q91" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="R91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
@@ -6697,11 +6839,7 @@
           <t>P267</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -6753,7 +6891,11 @@
       <c r="Q92" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="R92" t="inlineStr"/>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
@@ -6767,11 +6909,7 @@
           <t>P268</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -6823,7 +6961,11 @@
       <c r="Q93" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="R93" t="inlineStr"/>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
@@ -6839,7 +6981,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6907,7 +7049,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>P200</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -6959,7 +7101,11 @@
         <v>44378</v>
       </c>
       <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
@@ -6973,14 +7119,10 @@
           <t>O281</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>UPPER MANAGEMENT</t>
+          <t>MIDDLE MANAGEMENT</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -7000,12 +7142,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>OPS</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>ADMIN</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7027,7 +7169,11 @@
         <v>44378</v>
       </c>
       <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
@@ -7041,11 +7187,7 @@
           <t>O282</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -7063,7 +7205,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7094,8 +7236,14 @@
       <c r="P97" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
+      <c r="Q97" s="2" t="n">
+        <v>44446</v>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
@@ -7111,7 +7259,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>P226</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -7136,7 +7284,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>L&amp;T</t>
+          <t>MUTHOOT</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -7163,7 +7311,11 @@
         <v>44378</v>
       </c>
       <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -7179,7 +7331,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>P226</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -7231,7 +7383,11 @@
         <v>44375</v>
       </c>
       <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
@@ -7299,7 +7455,11 @@
         <v>44369</v>
       </c>
       <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
@@ -7335,7 +7495,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7366,10 +7526,12 @@
       <c r="P101" s="2" t="n">
         <v>44369</v>
       </c>
-      <c r="Q101" s="2" t="n">
-        <v>44397</v>
-      </c>
-      <c r="R101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
@@ -7437,7 +7599,11 @@
         <v>44369</v>
       </c>
       <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
@@ -7453,7 +7619,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7573,7 +7739,11 @@
         <v>44411</v>
       </c>
       <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
@@ -7587,7 +7757,11 @@
           <t>O285</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>O281</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -7610,12 +7784,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>SALES</t>
+          <t>MUTHOOT</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>SALES</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -7637,7 +7811,11 @@
         <v>44412</v>
       </c>
       <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
@@ -7653,7 +7831,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>O162</t>
+          <t>O281</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -7673,17 +7851,17 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>L&amp;T</t>
+          <t>HERO</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>RECOVERY</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -7692,7 +7870,7 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="M106" s="2" t="n">
         <v>35570</v>
@@ -7705,7 +7883,11 @@
         <v>44417</v>
       </c>
       <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr"/>
@@ -7719,7 +7901,11 @@
           <t>O287</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>O281</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -7742,12 +7928,12 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>SALES</t>
+          <t>HERO</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>SALES</t>
+          <t>RECOVERY</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -7769,7 +7955,11 @@
         <v>44417</v>
       </c>
       <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
@@ -7810,12 +8000,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>FULLERTON</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>RECOVERY</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -7837,7 +8027,11 @@
         <v>44409</v>
       </c>
       <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
@@ -7851,11 +8045,7 @@
           <t>P272</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -7907,7 +8097,11 @@
       <c r="Q109" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="R109" t="inlineStr"/>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
@@ -7975,7 +8169,11 @@
         <v>44418</v>
       </c>
       <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
@@ -8011,7 +8209,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8042,8 +8240,14 @@
       <c r="P111" s="2" t="n">
         <v>44419</v>
       </c>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
+      <c r="Q111" s="2" t="n">
+        <v>44450</v>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
@@ -8057,7 +8261,11 @@
           <t>O194</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>O281</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -8075,17 +8283,17 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>BAJAJ</t>
+          <t>HERO</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>RECOVERY</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -8107,7 +8315,11 @@
         <v>44379</v>
       </c>
       <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr"/>
@@ -8158,7 +8370,7 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="M113" s="2" t="n">
         <v>37615</v>
@@ -8173,7 +8385,11 @@
       <c r="Q113" s="2" t="n">
         <v>44430</v>
       </c>
-      <c r="R113" t="inlineStr"/>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
@@ -8187,7 +8403,11 @@
           <t>O288</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>O281</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>MIDDLE MANAGEMENT</t>
@@ -8210,12 +8430,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>BAJAJ</t>
+          <t>HERO</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>RECOVERY</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -8237,7 +8457,11 @@
         <v>44421</v>
       </c>
       <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr"/>
@@ -8251,7 +8475,11 @@
           <t>O290</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -8301,7 +8529,11 @@
         <v>44422</v>
       </c>
       <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
@@ -8315,7 +8547,11 @@
           <t>O292</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>MIDDLE MANAGEMENT</t>
@@ -8365,7 +8601,11 @@
         <v>44428</v>
       </c>
       <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
@@ -8379,7 +8619,11 @@
           <t>P275</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -8429,7 +8673,11 @@
         <v>44429</v>
       </c>
       <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr"/>
@@ -8443,7 +8691,11 @@
           <t>P276</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -8493,7 +8745,1725 @@
         <v>44429</v>
       </c>
       <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>AMAN KUMAR SINGH</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>P277</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>INACTIVE</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>INCENTIVE</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" s="2" t="n">
+        <v>37503</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="n">
+        <v>9911996881</v>
+      </c>
+      <c r="P119" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>BHUVAN CHANDER UPADHAYAY</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>P278</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>INACTIVE</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>INCENTIVE</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" s="2" t="n">
+        <v>27824</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="n">
+        <v>9818394567</v>
+      </c>
+      <c r="P120" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="Q120" s="2" t="n">
+        <v>44448</v>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>RAM VEER SINGH</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>P279</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>INCENTIVE</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" s="2" t="n">
+        <v>32428</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="n">
+        <v>7530854405</v>
+      </c>
+      <c r="P121" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>AJAY SACHDEVA</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>P280</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>INCENTIVE</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" s="2" t="n">
+        <v>25730</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="n">
+        <v>9211322422</v>
+      </c>
+      <c r="P122" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>SATISH</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>MIDDLE MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>TL</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M123" s="2" t="n">
+        <v>32954</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="n">
+        <v>8368249599</v>
+      </c>
+      <c r="P123" s="2" t="n">
+        <v>43669</v>
+      </c>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>HARPREET SINGH GULATI</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>O293</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>O281</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>HERO</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>RECOVERY</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M124" s="2" t="n">
+        <v>33329</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="n">
+        <v>9351574238</v>
+      </c>
+      <c r="P124" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>SONIA KAUR</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>O294</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>INACTIVE</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M125" s="2" t="n">
+        <v>36843</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="n">
+        <v>8800385449</v>
+      </c>
+      <c r="P125" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ARCHANA DHANAI</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>O295</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>O281</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>INACTIVE</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>HERO</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>RECOVERY</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M126" s="2" t="n">
+        <v>36897</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="n">
+        <v>9625235692</v>
+      </c>
+      <c r="P126" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>MUSKAN</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>O296</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>O281</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>INACTIVE</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>HERO</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>RECOVERY</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M127" s="2" t="n">
+        <v>36626</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="n">
+        <v>9643180282</v>
+      </c>
+      <c r="P127" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>RINKI KUMARI</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>O297</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>O281</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>INACTIVE</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>HERO</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>RECOVERY</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M128" s="2" t="n">
+        <v>37485</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="n">
+        <v>8750141757</v>
+      </c>
+      <c r="P128" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>SONALI MALIK</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>O298</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>MUTHOOT</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M129" s="2" t="n">
+        <v>36767</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="n">
+        <v>8368465882</v>
+      </c>
+      <c r="P129" s="2" t="n">
+        <v>44445</v>
+      </c>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr"/>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>RUKHSAR KHAN</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>O299</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>O281</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>HERO</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>RECOVERY</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M130" s="2" t="n">
+        <v>34093</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="n">
+        <v>8287276790</v>
+      </c>
+      <c r="P130" s="2" t="n">
+        <v>44445</v>
+      </c>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>NEELU MALIK</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>O300</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>O281</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>HERO</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>RECOVERY</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M131" s="2" t="n">
+        <v>37316</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="n">
+        <v>9315054608</v>
+      </c>
+      <c r="P131" s="2" t="n">
+        <v>44445</v>
+      </c>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>SURAJ MISHRA</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>O301</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>O281</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>INACTIVE</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>HERO</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>RECOVERY</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M132" s="2" t="n">
+        <v>36088</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="n">
+        <v>8920153145</v>
+      </c>
+      <c r="P132" s="2" t="n">
+        <v>44446</v>
+      </c>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>KAJAL</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>O302</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>O281</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>HERO</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>RECOVERY</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M133" s="2" t="n">
+        <v>37109</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="n">
+        <v>9315609956</v>
+      </c>
+      <c r="P133" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr"/>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>SHAKUNTLA CHOUDHARY</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>O303</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>O281</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>INACTIVE</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>HERO</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>RECOVERY</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M134" s="2" t="n">
+        <v>27395</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="n">
+        <v>7011420314</v>
+      </c>
+      <c r="P134" s="2" t="n">
+        <v>44452</v>
+      </c>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>AMANPREET SINGH</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>O304</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>O281</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>HERO</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>RECOVERY</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M135" s="2" t="n">
+        <v>36400</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="n">
+        <v>9667557716</v>
+      </c>
+      <c r="P135" s="2" t="n">
+        <v>44453</v>
+      </c>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>PARAKH GAUR</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>P281</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>INCENTIVE</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" s="2" t="n">
+        <v>32041</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="n">
+        <v>9818976463</v>
+      </c>
+      <c r="P136" s="2" t="n">
+        <v>44453</v>
+      </c>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr"/>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>HARIOM DIXIT</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>P282</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>INACTIVE</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>INCENTIVE</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" s="2" t="n">
+        <v>33451</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="n">
+        <v>8802891202</v>
+      </c>
+      <c r="P137" s="2" t="n">
+        <v>44453</v>
+      </c>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr"/>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>SANJAY KUMAR</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>P283</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>INCENTIVE</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" s="2" t="n">
+        <v>29604</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="n">
+        <v>9311108480</v>
+      </c>
+      <c r="P138" s="2" t="n">
+        <v>44453</v>
+      </c>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr"/>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>MUSHAHID</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>P284</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>INCENTIVE</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" s="2" t="n">
+        <v>35848</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="n">
+        <v>9971558890</v>
+      </c>
+      <c r="P139" s="2" t="n">
+        <v>44466</v>
+      </c>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr"/>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>JAKIR KHAN</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>P285</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>INCENTIVE</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" s="2" t="n">
+        <v>35251</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="n">
+        <v>9634919080</v>
+      </c>
+      <c r="P140" s="2" t="n">
+        <v>44473</v>
+      </c>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>RAJENDER KUMAR VERMA</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>P286</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>INCENTIVE</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" s="2" t="n">
+        <v>22274</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="n">
+        <v>9313489718</v>
+      </c>
+      <c r="P141" s="2" t="n">
+        <v>44473</v>
+      </c>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>KARAN</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>P287</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>MUTHOOT</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>INCENTIVE</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" s="2" t="n">
+        <v>34223</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="n">
+        <v>9560270329</v>
+      </c>
+      <c r="P142" s="2" t="n">
+        <v>44476</v>
+      </c>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
